--- a/intervention/pearson_btec_sport_auto.xlsx
+++ b/intervention/pearson_btec_sport_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,21 +452,21 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V931252509026</t>
+          <t>Q931100609018</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Q931100609018</t>
+          <t>V931252509026</t>
         </is>
       </c>
     </row>
@@ -477,6 +477,606 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>U931252110024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L931383612038</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N931100608064</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F931252109004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Y931321110015</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C373236909082</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>W931321009038</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D316209709080</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D931252710019</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>T931252110004</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Z931383214002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>K931325309006</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>V931325309014</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>R928218115049</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>X931325208068</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>X931252108044</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>U931101109021</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>P931252108047</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A931252108046</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D931252109049</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>V931101109012</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>W931101109032</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Q931252108040</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B931235209044</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>D931100609028</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>N931325209054</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>T931100609029</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>H931101109051</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X931412020027</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>U931101109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>U931325208066</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Y931252508056</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>H931325209012</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Q931258910001</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>X931235209022</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>L931252709035</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>C931252508049</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D931252714054</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>N931101108063</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>N931252909043</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>A931383810034</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>M931412019009</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>G931383411018</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>F931252108061</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Q931202016013</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A931383810005</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D931383810007</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>L931101109024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>L931412020030</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>U931325209009</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z931325309007</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>F931321308025</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>W310350110023</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B931100609017</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Y931252509028</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Q931253109015</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>P931101109055</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>K931252910051</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B931252710010</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>P931252109019</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B931400418001</t>
         </is>
       </c>
     </row>
